--- a/data/trans_dic/p33_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/p33_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,05; 21,8</t>
+          <t>14,42; 21,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,4; 28,29</t>
+          <t>20,17; 28,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,73; 25,84</t>
+          <t>17,87; 26,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,57; 27,4</t>
+          <t>19,2; 27,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,27; 22,97</t>
+          <t>14,42; 23,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,94; 24,95</t>
+          <t>16,02; 25,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,87; 24,76</t>
+          <t>16,34; 24,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,84; 30,89</t>
+          <t>24,11; 31,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,48; 20,85</t>
+          <t>15,14; 20,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,22; 25,49</t>
+          <t>19,24; 25,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,93; 23,94</t>
+          <t>17,85; 24,06</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,81; 28,4</t>
+          <t>22,43; 27,85</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,8; 18,04</t>
+          <t>9,84; 17,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,97; 29,83</t>
+          <t>21,34; 30,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,29; 30,91</t>
+          <t>21,81; 31,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,29; 27,72</t>
+          <t>19,58; 27,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,16; 21,79</t>
+          <t>14,19; 22,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,39; 33,71</t>
+          <t>23,14; 33,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,11; 25,22</t>
+          <t>16,17; 24,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,95; 31,62</t>
+          <t>23,79; 31,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,24; 18,86</t>
+          <t>13,11; 18,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,96; 30,05</t>
+          <t>23,5; 30,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,13; 26,69</t>
+          <t>19,96; 26,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,26; 28,08</t>
+          <t>22,34; 28,07</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,29; 23,09</t>
+          <t>16,01; 23,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,3; 30,8</t>
+          <t>23,26; 31,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,45; 29,17</t>
+          <t>21,3; 28,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 34,15</t>
+          <t>7,95; 33,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,83; 33,63</t>
+          <t>19,3; 33,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,82; 35,96</t>
+          <t>23,42; 34,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,81; 31,69</t>
+          <t>17,43; 31,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,05; 35,22</t>
+          <t>24,78; 35,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,59; 23,87</t>
+          <t>17,83; 24,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24,67; 30,91</t>
+          <t>24,43; 30,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>21,37; 28,07</t>
+          <t>21,49; 27,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,54; 32,8</t>
+          <t>9,77; 33,3</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,85; 24,8</t>
+          <t>20,03; 24,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,56; 30,11</t>
+          <t>24,66; 29,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,08; 27,23</t>
+          <t>21,86; 26,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,88; 30,35</t>
+          <t>23,88; 30,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,72; 24,88</t>
+          <t>18,38; 24,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,68; 32,56</t>
+          <t>25,86; 32,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,88; 32,33</t>
+          <t>26,11; 32,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,35; 74,58</t>
+          <t>33,4; 72,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,75; 23,66</t>
+          <t>19,85; 23,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,95; 30,18</t>
+          <t>25,92; 30,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,18; 28,23</t>
+          <t>24,38; 28,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,29; 56,44</t>
+          <t>29,15; 57,84</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,99; 25,88</t>
+          <t>16,4; 25,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,44; 32,22</t>
+          <t>24,48; 32,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,16; 25,73</t>
+          <t>19,01; 25,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21,83; 30,26</t>
+          <t>22,05; 30,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>21,03; 28,61</t>
+          <t>21,1; 28,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,26; 41,33</t>
+          <t>34,16; 41,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,58; 34,21</t>
+          <t>27,73; 34,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,0; 35,18</t>
+          <t>22,14; 35,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,65; 26,38</t>
+          <t>20,53; 26,22</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>31,25; 36,59</t>
+          <t>31,38; 37,06</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>24,69; 29,55</t>
+          <t>24,75; 29,71</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>24,01; 32,16</t>
+          <t>24,1; 32,29</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,81; 11,34</t>
+          <t>4,94; 11,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,86; 21,97</t>
+          <t>12,96; 22,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,56; 20,2</t>
+          <t>11,45; 20,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,78; 18,36</t>
+          <t>4,65; 19,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,68; 30,83</t>
+          <t>25,74; 30,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,15; 39,83</t>
+          <t>34,01; 40,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,47; 35,4</t>
+          <t>29,51; 35,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,88; 30,64</t>
+          <t>24,95; 30,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,04; 26,66</t>
+          <t>22,02; 26,41</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>30,56; 35,68</t>
+          <t>30,54; 35,78</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>26,33; 31,46</t>
+          <t>26,21; 31,48</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>20,7; 26,34</t>
+          <t>20,91; 26,43</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,29; 19,91</t>
+          <t>17,24; 19,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>24,39; 27,54</t>
+          <t>24,45; 27,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,64; 24,57</t>
+          <t>21,69; 24,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,21; 25,73</t>
+          <t>17,38; 25,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,66; 25,55</t>
+          <t>22,45; 25,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>30,89; 34,08</t>
+          <t>30,9; 34,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,03; 30,07</t>
+          <t>26,92; 30,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>29,38; 48,34</t>
+          <t>29,33; 48,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,4; 22,46</t>
+          <t>20,37; 22,34</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>28,16; 30,43</t>
+          <t>28,23; 30,48</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>24,75; 26,87</t>
+          <t>24,77; 26,91</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>25,45; 35,25</t>
+          <t>25,65; 36,75</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no duerme las horas de sueño recomendadas (Sociedad Española del Sueño)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>82321</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>104203</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>92233</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>114946</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>56762</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>63524</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>70028</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>121646</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>139083</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>167726</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>162261</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>236591</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>67291; 101518</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>88191; 124999</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>76680; 112091</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>95047; 134437</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>44220; 71544</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>50381; 80706</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>56724; 86603</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>106570; 138689</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>117130; 162092</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>144630; 192338</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>138550; 186736</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>210184; 260973</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>49944</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>106176</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>98038</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>102886</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>66293</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>94714</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>74984</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>104348</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>116237</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>200891</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>173022</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>207233</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>35805; 64910</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>89163; 127614</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>82074; 117843</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>87469; 125062</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>52635; 82022</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>78231; 113421</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>60210; 91951</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>89378; 117843</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>96339; 138193</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>177643; 228221</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>149382; 198559</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>183738; 230916</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>103095</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>169714</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>129424</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>135899</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>42752</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>74730</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>38654</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>48503</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>145847</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>244445</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>168078</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>184402</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>85939; 123834</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>145944; 194514</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>110811; 150595</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>52482; 224167</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>31753; 54975</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>60127; 89459</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>28244; 51209</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>40183; 58146</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>125065; 168698</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>215994; 270836</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>146617; 190686</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>80314; 273776</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>268324</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>314408</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>280235</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>262609</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>150743</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>222764</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>239099</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>460412</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>419067</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>537173</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>519334</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>723022</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>243702; 301767</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>284107; 345116</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>250647; 309227</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>234298; 296863</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>129963; 171894</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>198238; 250135</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>214960; 266535</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>319275; 692650</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>381908; 454291</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>497344; 575911</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>480182; 561347</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>564600; 1120510</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>72324</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>144349</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>138727</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>117952</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>141102</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>287783</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>229372</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>247535</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>213425</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>432132</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>368099</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>365488</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>56645; 87166</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>124656; 164030</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>117783; 160838</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>100201; 139072</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>119987; 161546</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>259828; 314380</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>204085; 254858</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>179051; 286013</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>187706; 239672</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>398438; 470653</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>335580; 402795</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>304404; 407867</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>22371</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>45668</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>44645</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>23183</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>349349</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>407127</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>350262</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>202818</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>371720</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>452795</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>394906</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>226001</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>14513; 32779</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>34459; 59365</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>32887; 58283</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>10981; 46244</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>318691; 381990</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>375618; 442305</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>317650; 380304</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>182717; 223413</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>337255; 404576</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>418543; 490251</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>357491; 429231</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>202478; 255959</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>825</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>779</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1067</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>913</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1740</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1365</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1892</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1658</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>2624</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>598379</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>884518</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>783303</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>757474</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>807000</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1150643</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1002397</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1185262</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1405378</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2035161</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1785700</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1942737</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>555839; 641945</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>833528; 941232</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>732820; 832296</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>569171; 839961</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>753516; 853598</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1094081; 1206092</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>946686; 1059268</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1019864; 1683556</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1339987; 1469688</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1961899; 2118625</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1708052; 1855949</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1731509; 2480559</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>